--- a/Cham_cong.xlsx
+++ b/Cham_cong.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>BANG CHAM CONG</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Mẫu bảng chấm công theo tháng</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>QL</t>
   </si>
 </sst>
 </file>
@@ -173,14 +182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,8 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,11 +603,11 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -672,16 +681,16 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -716,190 +725,190 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
         <v>3</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
         <v>5</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
         <v>6</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7">
         <v>7</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7">
         <v>8</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8">
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
         <v>9</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8">
+      <c r="W6" s="7"/>
+      <c r="X6" s="7">
         <v>10</v>
       </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7">
         <v>11</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8">
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7">
         <v>12</v>
       </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8">
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7">
         <v>13</v>
       </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8">
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7">
         <v>14</v>
       </c>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8">
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7">
         <v>15</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="5"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="9"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="V7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AB7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD7" s="10" t="s">
+      <c r="AD7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AE7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AF7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AG7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" s="10" t="s">
+      <c r="AH7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AI7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="5"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="9"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -912,7 +921,9 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -955,7 +966,9 @@
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -998,7 +1011,9 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1041,7 +1056,9 @@
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1084,7 +1101,9 @@
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1127,7 +1146,9 @@
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1170,7 +1191,9 @@
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1213,7 +1236,9 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1256,7 +1281,9 @@
       <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1299,7 +1326,9 @@
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1422,11 +1451,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AK7"/>
@@ -1442,8 +1466,13 @@
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="F5:AI5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:AI5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="D5:D7"/>

--- a/Cham_cong.xlsx
+++ b/Cham_cong.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T495s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T495s\Documents\GitHub\PRJ301-BL5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>BANG CHAM CONG</t>
   </si>
@@ -135,6 +136,24 @@
   </si>
   <si>
     <t>QL</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Nghỉ không phép</t>
+  </si>
+  <si>
+    <t>Nghỉ có phép</t>
+  </si>
+  <si>
+    <t>Edit chấm công của nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
   </si>
 </sst>
 </file>
@@ -185,9 +204,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -482,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,12 +546,12 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -681,140 +700,140 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="8" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AK5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AL5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AM5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
         <v>2</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>4</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
         <v>5</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6">
         <v>6</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
         <v>7</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7">
+      <c r="S6" s="6"/>
+      <c r="T6" s="6">
         <v>8</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
+      <c r="U6" s="6"/>
+      <c r="V6" s="6">
         <v>9</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7">
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
         <v>10</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6">
         <v>11</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6">
         <v>12</v>
       </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7">
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6">
         <v>13</v>
       </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7">
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6">
         <v>14</v>
       </c>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7">
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6">
         <v>15</v>
       </c>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="9"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="8"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
@@ -905,10 +924,10 @@
       <c r="AI7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="9"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="8"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1451,6 +1470,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AK7"/>
@@ -1467,18 +1496,222 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="F5:AI5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cham_cong.xlsx
+++ b/Cham_cong.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>BANG CHAM CONG</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Chuc vu</t>
   </si>
   <si>
-    <t>Ngay lam viec</t>
-  </si>
-  <si>
     <t>Nghi co phep</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>NV</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
     <t>QL</t>
   </si>
   <si>
@@ -154,6 +148,9 @@
   </si>
   <si>
     <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Gio lam viec</t>
   </si>
 </sst>
 </file>
@@ -501,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +544,7 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -745,16 +742,16 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AL5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AL5" s="7" t="s">
+      <c r="AM5" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -835,94 +832,94 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="N7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="P7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="R7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="T7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="V7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="X7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="Z7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AB7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AD7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AF7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AH7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
@@ -935,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -980,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
@@ -1025,13 +1022,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1070,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1115,13 +1112,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1160,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1205,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1250,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1295,13 +1292,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1340,13 +1337,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1518,38 +1515,38 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
